--- a/Contracts_Word/Information.xlsx
+++ b/Contracts_Word/Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharc\Documents\GitHub\machine_learning\Contracts_Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4DC6D8-3A58-48A5-B8E9-312FC1FBA790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9214AEF0-3777-4814-A234-0B833C32866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{04D7124A-5188-4500-8497-6BF2720CFC6F}"/>
   </bookViews>
